--- a/dist/document/dest/2020/10/doctors/93.xlsx
+++ b/dist/document/dest/2020/10/doctors/93.xlsx
@@ -404,9 +404,6 @@
       <c r="B2" s="1">
         <v>30</v>
       </c>
-      <c r="C2" s="1">
-        <v>569400</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -415,9 +412,6 @@
       <c r="B3" s="1">
         <v>606</v>
       </c>
-      <c r="C3" s="1">
-        <v>4366230</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -426,9 +420,6 @@
       <c r="B4" s="1">
         <v>49</v>
       </c>
-      <c r="C4" s="1">
-        <v>646800</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -437,9 +428,6 @@
       <c r="B5" s="1">
         <v>60</v>
       </c>
-      <c r="C5" s="1">
-        <v>205800</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -448,9 +436,6 @@
       <c r="B6" s="1">
         <v>155</v>
       </c>
-      <c r="C6" s="1">
-        <v>385950</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -459,9 +444,6 @@
       <c r="B7" s="1">
         <v>10</v>
       </c>
-      <c r="C7" s="1">
-        <v>57500</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -470,9 +452,6 @@
       <c r="B8" s="1">
         <v>42</v>
       </c>
-      <c r="C8" s="1">
-        <v>415800</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -481,9 +460,6 @@
       <c r="B9" s="1">
         <v>42</v>
       </c>
-      <c r="C9" s="1">
-        <v>679140</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -492,9 +468,6 @@
       <c r="B10" s="1">
         <v>34</v>
       </c>
-      <c r="C10" s="1">
-        <v>598400</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
@@ -503,9 +476,6 @@
       <c r="B11" s="1">
         <v>252</v>
       </c>
-      <c r="C11" s="1">
-        <v>4989600</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
@@ -514,9 +484,6 @@
       <c r="B12" s="1">
         <v>68</v>
       </c>
-      <c r="C12" s="1">
-        <v>1322600</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -525,9 +492,6 @@
       <c r="B13" s="1">
         <v>7</v>
       </c>
-      <c r="C13" s="1">
-        <v>107800</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
@@ -536,9 +500,6 @@
       <c r="B14" s="1">
         <v>133</v>
       </c>
-      <c r="C14" s="1">
-        <v>3237220</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
@@ -547,9 +508,6 @@
       <c r="B15" s="1">
         <v>20</v>
       </c>
-      <c r="C15" s="1">
-        <v>78400</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
@@ -558,9 +516,6 @@
       <c r="B16" s="1">
         <v>20</v>
       </c>
-      <c r="C16" s="1">
-        <v>25500</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
@@ -569,9 +524,6 @@
       <c r="B17" s="1">
         <v>28</v>
       </c>
-      <c r="C17" s="1">
-        <v>230720</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
@@ -580,9 +532,6 @@
       <c r="B18" s="1">
         <v>380</v>
       </c>
-      <c r="C18" s="1">
-        <v>1573200</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
@@ -591,9 +540,6 @@
       <c r="B19" s="1">
         <v>180</v>
       </c>
-      <c r="C19" s="1">
-        <v>3267000</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
@@ -602,9 +548,6 @@
       <c r="B20" s="1">
         <v>30</v>
       </c>
-      <c r="C20" s="1">
-        <v>118950</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
@@ -613,9 +556,6 @@
       <c r="B21" s="1">
         <v>4</v>
       </c>
-      <c r="C21" s="1">
-        <v>718800</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
@@ -624,9 +564,6 @@
       <c r="B22" s="1">
         <v>200</v>
       </c>
-      <c r="C22" s="1">
-        <v>1035000</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
@@ -635,9 +572,6 @@
       <c r="B23" s="1">
         <v>5</v>
       </c>
-      <c r="C23" s="1">
-        <v>22100</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
@@ -646,9 +580,6 @@
       <c r="B24" s="1">
         <v>60</v>
       </c>
-      <c r="C24" s="1">
-        <v>528000</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
@@ -657,9 +588,6 @@
       <c r="B25" s="1">
         <v>27</v>
       </c>
-      <c r="C25" s="1">
-        <v>761400</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
@@ -668,9 +596,6 @@
       <c r="B26" s="1">
         <v>48</v>
       </c>
-      <c r="C26" s="1">
-        <v>467808</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
@@ -679,9 +604,6 @@
       <c r="B27" s="1">
         <v>60</v>
       </c>
-      <c r="C27" s="1">
-        <v>1059600</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
@@ -690,9 +612,6 @@
       <c r="B28" s="1">
         <v>31</v>
       </c>
-      <c r="C28" s="1">
-        <v>255068</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
@@ -702,7 +621,7 @@
         <v>2581</v>
       </c>
       <c r="C29" s="1">
-        <v>27723786</v>
+        <v>NaN</v>
       </c>
     </row>
   </sheetData>

--- a/dist/document/dest/2020/10/doctors/93.xlsx
+++ b/dist/document/dest/2020/10/doctors/93.xlsx
@@ -376,7 +376,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -399,234 +399,194 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Avodart (Dutasteride 0.5mg)</v>
+        <v>Camoas (Flavoxat 200mg)</v>
       </c>
       <c r="B2" s="1">
-        <v>30</v>
+        <v>138</v>
+      </c>
+      <c r="C2" s="1">
+        <v>994290</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Camoas (Flavoxat 200mg)</v>
+        <v>Celevox (Levofloxacin 500mg)</v>
       </c>
       <c r="B3" s="1">
-        <v>606</v>
+        <v>59</v>
+      </c>
+      <c r="C3" s="1">
+        <v>778800</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Celevox (Levofloxacin 500mg)</v>
+        <v>Domitazol (Malva purpurea, xanh methylen, camphor monobromid)</v>
       </c>
       <c r="B4" s="1">
-        <v>49</v>
+        <v>30</v>
+      </c>
+      <c r="C4" s="1">
+        <v>74700</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Debridat (Trimebutine 100mg)</v>
+        <v>Flexilor 4 (Lornoxicam 4mg)</v>
       </c>
       <c r="B5" s="1">
-        <v>60</v>
+        <v>20</v>
+      </c>
+      <c r="C5" s="1">
+        <v>198000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Domitazol (Malva purpurea, xanh methylen, camphor monobromid)</v>
+        <v>Iba-mentin 1000/62.5mg (Amoxicilin, clavulanic)</v>
       </c>
       <c r="B6" s="1">
-        <v>155</v>
+        <v>10</v>
+      </c>
+      <c r="C6" s="1">
+        <v>176000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Duphalac (Iactulose)</v>
+        <v>Imenir (Cefdinir 300mg)</v>
       </c>
       <c r="B7" s="1">
-        <v>10</v>
+        <v>72</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1425600</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Flexilor 4 (Lornoxicam 4mg)</v>
+        <v>Lyrica 75Mg (Pregabalin)</v>
       </c>
       <c r="B8" s="1">
-        <v>42</v>
+        <v>6</v>
+      </c>
+      <c r="C8" s="1">
+        <v>116700</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>Harnal Ocas 0.4mg (Tamsulosin)</v>
+        <v>Minirin (Desmopressin acetate 0.1mg)</v>
       </c>
       <c r="B9" s="1">
-        <v>42</v>
+        <v>70</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1703800</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>Iba-mentin 1000/62.5mg (Amoxicilin, clavulanic)</v>
+        <v>Permixon 160mg</v>
       </c>
       <c r="B10" s="1">
-        <v>34</v>
+        <v>28</v>
+      </c>
+      <c r="C10" s="1">
+        <v>230720</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>Imenir (Cefdinir 300mg)</v>
+        <v>Pharcotinex</v>
       </c>
       <c r="B11" s="1">
-        <v>252</v>
+        <v>60</v>
+      </c>
+      <c r="C11" s="1">
+        <v>248400</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>Lyrica 75Mg (Pregabalin)</v>
+        <v>Tadalafil Stada (Tadalafil 10mg)</v>
       </c>
       <c r="B12" s="1">
-        <v>68</v>
+        <v>20</v>
+      </c>
+      <c r="C12" s="1">
+        <v>313400</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>Maxezole 40 (Esomeprazole 40mg)</v>
+        <v>Talroma (Tiropramide 100mg)</v>
       </c>
       <c r="B13" s="1">
-        <v>7</v>
+        <v>35</v>
+      </c>
+      <c r="C13" s="1">
+        <v>181125</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>Minirin (Desmopressin acetate 0.1mg)</v>
+        <v>Transamin 500mg (Tranexamic)</v>
       </c>
       <c r="B14" s="1">
-        <v>133</v>
+        <v>10</v>
+      </c>
+      <c r="C14" s="1">
+        <v>44200</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>Myonal (Eperison 50mg)</v>
+        <v>Ultracet (Tramadol 37.5mg, paracetamol 325mg)</v>
       </c>
       <c r="B15" s="1">
-        <v>20</v>
+        <v>15</v>
+      </c>
+      <c r="C15" s="1">
+        <v>132000</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>Panadol Extra (Paracetamol, caffeine)</v>
+        <v>Vesicare (Solifenacin succinate 5mg)</v>
       </c>
       <c r="B16" s="1">
-        <v>20</v>
+        <v>40</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1128000</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>Permixon 160mg</v>
+        <v>Xatral XL(Alfuzosine 10mg)</v>
       </c>
       <c r="B17" s="1">
-        <v>28</v>
+        <v>44</v>
+      </c>
+      <c r="C17" s="1">
+        <v>777040</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>Pharcotinex</v>
+        <v>Tổng cộng</v>
       </c>
       <c r="B18" s="1">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="str">
-        <v>Prorid (Finasteride 5 mg)</v>
-      </c>
-      <c r="B19" s="1">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="str">
-        <v>Safena (Atorvastatin 10mg)</v>
-      </c>
-      <c r="B20" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="str">
-        <v>Sotinin</v>
-      </c>
-      <c r="B21" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="str">
-        <v>Talroma (Tiropramide 100mg)</v>
-      </c>
-      <c r="B22" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="str">
-        <v>Transamin 500mg (Tranexamic)</v>
-      </c>
-      <c r="B23" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="str">
-        <v>Ultracet (Tramadol 37.5mg, paracetamol 325mg)</v>
-      </c>
-      <c r="B24" s="1">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="str">
-        <v>Vesicare (Solifenacin succinate 5mg)</v>
-      </c>
-      <c r="B25" s="1">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="str">
-        <v>Vocfor (Lornoxicam 4mg)</v>
-      </c>
-      <c r="B26" s="1">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="str">
-        <v>Xatral XL(Alfuzosine 10mg)</v>
-      </c>
-      <c r="B27" s="1">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="str">
-        <v>Zyrtec 10 (Cetirizine)</v>
-      </c>
-      <c r="B28" s="1">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="str">
-        <v>Tổng cộng</v>
-      </c>
-      <c r="B29" s="1">
-        <v>2581</v>
-      </c>
-      <c r="C29" s="1">
-        <v>NaN</v>
+        <v>657</v>
+      </c>
+      <c r="C18" s="1">
+        <v>8522775</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C29"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C18"/>
   </ignoredErrors>
 </worksheet>
 </file>